--- a/2. objectcatalogus/IMKL2015 v 1.0RC1plus-object-attributen-ExtraRegels.xlsx
+++ b/2. objectcatalogus/IMKL2015 v 1.0RC1plus-object-attributen-ExtraRegels.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="17175" windowHeight="7125" tabRatio="875" firstSheet="18" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="17175" windowHeight="7125" tabRatio="875" firstSheet="21" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="IMKL2.2ExtraRegels" sheetId="23" state="hidden" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3542" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3542" uniqueCount="336">
   <si>
     <t>IMKL2.2 Extra regels</t>
   </si>
@@ -1682,9 +1682,6 @@
     <t>omschrijving</t>
   </si>
   <si>
-    <t>isBovengrondsZichtbaar</t>
-  </si>
-  <si>
     <t>Aanbevolen om toe te voegen indien beschikbaar</t>
   </si>
   <si>
@@ -1864,13 +1861,6 @@
     <t>maaiveldPeil</t>
   </si>
   <si>
-    <t>Sterk aanbevolen indien beschikbaar
-De UOM wordt uitgedrukt via 1 van de volgende OGC URN codes:
-• urn:ogc:def:uom:OGC::m
-• urn:ogc:def:uom:OGC::cm
-• urn:ogc:def:uom:OGC::mm</t>
-  </si>
-  <si>
     <t>datumOpmetingMaaiveldPeil</t>
   </si>
   <si>
@@ -2226,6 +2216,31 @@
   </si>
   <si>
     <t>Doet IMKL2015 niets mee. nilReason mag.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Strikte verplichting voor annotatieobjecten van het type  annotatieLabel of pijl. De unit of measure moet zijn OGC:URN:DEF:UOM:ogc:F16:deg
+- Bij annotatieobjecten van het type maatvoeringsLijn of annotatielijn wordt De waarde van deze property genegeerd tijdens De validatie en voor het tonen van De gegevens in De viewer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voor WION is eenheid meter met max twee decimalen. Sterk aanbevolen indien beschikbaar
+De UOM wordt uitgedrukt via 1 van de volgende OGC URN codes:
+• urn:ogc:def:uom:OGC::m
+• urn:ogc:def:uom:OGC::cm
+• urn:ogc:def:uom:OGC::mm </t>
+  </si>
+  <si>
+    <t>Voor WION eenheid is meter met max twee decimalen. Strikte verplichting IMKL
+De UOM wordt uitgedrukt via 1 van de volgende OGC URN codes:
+• urn:ogc:def:uom:OGC::m
+• urn:ogc:def:uom:OGC::cm
+• urn:ogc:def:uom:OGC::mm</t>
+  </si>
+  <si>
+    <t>Voor WION eenheid is meter met max twee decimalen. Sterk aanbevolen om toe te voegen
+De UOM wordt uitgedrukt via 1 van de volgende OGC URN codes:
+• urn:ogc:def:uom:OGC::m
+• urn:ogc:def:uom:OGC::cm
+• urn:ogc:def:uom:OGC::mm</t>
   </si>
 </sst>
 </file>
@@ -4182,7 +4197,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4242,7 +4257,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
@@ -4262,7 +4277,7 @@
         <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4282,7 +4297,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="36" customFormat="1" ht="36" customHeight="1">
@@ -4296,13 +4311,13 @@
         <v>130</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>137</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1">
@@ -4322,7 +4337,7 @@
         <v>137</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1">
@@ -4342,7 +4357,7 @@
         <v>131</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="13" customFormat="1">
@@ -4362,7 +4377,7 @@
         <v>131</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1">
@@ -4382,7 +4397,7 @@
         <v>131</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="13" customFormat="1">
@@ -4422,7 +4437,7 @@
         <v>137</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="12" customFormat="1">
@@ -4442,7 +4457,7 @@
         <v>137</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="12" customFormat="1">
@@ -4462,7 +4477,7 @@
         <v>131</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="13" customFormat="1">
@@ -4482,12 +4497,12 @@
         <v>131</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="36" customFormat="1" ht="63" customHeight="1">
       <c r="A16" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>29</v>
@@ -4502,12 +4517,12 @@
         <v>131</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="13" customFormat="1">
       <c r="A17" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>29</v>
@@ -4516,18 +4531,18 @@
         <v>143</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="13" customFormat="1">
       <c r="A18" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>29</v>
@@ -4536,18 +4551,18 @@
         <v>143</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="13" customFormat="1">
       <c r="A19" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>29</v>
@@ -4556,13 +4571,13 @@
         <v>143</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1">
@@ -4573,7 +4588,7 @@
         <v>160</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>161</v>
@@ -4582,7 +4597,7 @@
         <v>131</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1">
@@ -4593,7 +4608,7 @@
         <v>160</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>161</v>
@@ -4602,18 +4617,18 @@
         <v>131</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>133</v>
@@ -4622,18 +4637,18 @@
         <v>131</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="13" customFormat="1">
       <c r="A23" s="13" t="s">
-        <v>163</v>
+        <v>251</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>108</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>133</v>
@@ -4642,18 +4657,18 @@
         <v>131</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="4" customFormat="1">
       <c r="A24" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>133</v>
@@ -4662,18 +4677,18 @@
         <v>131</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="13" customFormat="1">
       <c r="A25" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>161</v>
@@ -4684,53 +4699,53 @@
     </row>
     <row r="26" spans="1:6" s="15" customFormat="1">
       <c r="A26" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>104</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>137</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="13" customFormat="1">
       <c r="A27" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>108</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>161</v>
@@ -4739,7 +4754,7 @@
         <v>137</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -4765,7 +4780,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4780,7 +4795,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -4825,7 +4840,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
@@ -4845,7 +4860,7 @@
         <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4865,7 +4880,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="38" customFormat="1" ht="31.5">
@@ -4879,13 +4894,13 @@
         <v>130</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>137</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1">
@@ -4905,7 +4920,7 @@
         <v>137</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1">
@@ -4925,7 +4940,7 @@
         <v>131</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="13" customFormat="1">
@@ -4945,7 +4960,7 @@
         <v>131</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1">
@@ -4965,7 +4980,7 @@
         <v>131</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="13" customFormat="1">
@@ -5005,7 +5020,7 @@
         <v>137</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="12" customFormat="1">
@@ -5025,7 +5040,7 @@
         <v>137</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="12" customFormat="1">
@@ -5045,7 +5060,7 @@
         <v>131</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="13" customFormat="1">
@@ -5065,12 +5080,12 @@
         <v>131</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="38" customFormat="1" ht="21" customHeight="1">
       <c r="A16" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>29</v>
@@ -5085,12 +5100,12 @@
         <v>131</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="13" customFormat="1">
       <c r="A17" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>29</v>
@@ -5099,18 +5114,18 @@
         <v>143</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="13" customFormat="1">
       <c r="A18" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>29</v>
@@ -5119,18 +5134,18 @@
         <v>143</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="13" customFormat="1">
       <c r="A19" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>29</v>
@@ -5139,13 +5154,13 @@
         <v>143</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1">
@@ -5156,7 +5171,7 @@
         <v>160</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>161</v>
@@ -5165,7 +5180,7 @@
         <v>131</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1">
@@ -5176,7 +5191,7 @@
         <v>160</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>161</v>
@@ -5185,18 +5200,18 @@
         <v>131</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1">
       <c r="A22" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>133</v>
@@ -5205,18 +5220,18 @@
         <v>131</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="13" customFormat="1">
       <c r="A23" s="13" t="s">
-        <v>163</v>
+        <v>251</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>108</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>133</v>
@@ -5225,18 +5240,18 @@
         <v>131</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>133</v>
@@ -5245,21 +5260,21 @@
         <v>131</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="13" customFormat="1">
       <c r="A25" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>131</v>
@@ -5267,53 +5282,53 @@
     </row>
     <row r="26" spans="1:6" s="15" customFormat="1">
       <c r="A26" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>137</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="13" customFormat="1">
       <c r="A27" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>108</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>161</v>
@@ -5322,7 +5337,7 @@
         <v>137</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -5334,8 +5349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5350,7 +5365,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -5395,7 +5410,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
@@ -5415,7 +5430,7 @@
         <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1">
@@ -5449,13 +5464,13 @@
         <v>130</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>137</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1">
@@ -5475,7 +5490,7 @@
         <v>137</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1">
@@ -5515,7 +5530,7 @@
         <v>131</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1">
@@ -5535,7 +5550,7 @@
         <v>131</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="13" customFormat="1">
@@ -5575,7 +5590,7 @@
         <v>137</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="12" customFormat="1">
@@ -5595,7 +5610,7 @@
         <v>137</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="12" customFormat="1">
@@ -5615,7 +5630,7 @@
         <v>131</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="13" customFormat="1">
@@ -5635,12 +5650,12 @@
         <v>131</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="36" customFormat="1" ht="93.75" customHeight="1">
       <c r="A16" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>35</v>
@@ -5655,12 +5670,12 @@
         <v>131</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>35</v>
@@ -5675,12 +5690,12 @@
         <v>131</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="13" customFormat="1">
       <c r="A18" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>35</v>
@@ -5689,18 +5704,18 @@
         <v>143</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="13" customFormat="1">
       <c r="A19" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>35</v>
@@ -5709,13 +5724,13 @@
         <v>143</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1">
@@ -5726,7 +5741,7 @@
         <v>160</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>161</v>
@@ -5735,7 +5750,7 @@
         <v>131</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1">
@@ -5746,7 +5761,7 @@
         <v>160</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>161</v>
@@ -5755,18 +5770,18 @@
         <v>131</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1">
       <c r="A22" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>133</v>
@@ -5775,18 +5790,18 @@
         <v>131</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="13" customFormat="1">
       <c r="A23" s="13" t="s">
-        <v>163</v>
+        <v>251</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>108</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>133</v>
@@ -5795,18 +5810,18 @@
         <v>131</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>133</v>
@@ -5815,21 +5830,21 @@
         <v>131</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="13" customFormat="1">
       <c r="A25" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>131</v>
@@ -5837,13 +5852,13 @@
     </row>
     <row r="26" spans="1:6" s="13" customFormat="1">
       <c r="A26" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>161</v>
@@ -5854,53 +5869,53 @@
     </row>
     <row r="27" spans="1:6" s="15" customFormat="1">
       <c r="A27" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>137</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="13" customFormat="1">
       <c r="A28" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>108</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="13" customFormat="1">
       <c r="A29" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>161</v>
@@ -5909,18 +5924,18 @@
         <v>131</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>161</v>
@@ -5929,7 +5944,7 @@
         <v>137</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -6006,7 +6021,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
@@ -6026,7 +6041,7 @@
         <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1">
@@ -6046,7 +6061,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1">
@@ -6066,15 +6081,15 @@
         <v>137</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>130</v>
@@ -6086,47 +6101,47 @@
         <v>131</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1">
       <c r="A8" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>137</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1">
       <c r="A9" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>137</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1">
@@ -6146,7 +6161,7 @@
         <v>131</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="13" customFormat="1" ht="31.5">
@@ -6186,7 +6201,7 @@
         <v>131</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="13" customFormat="1">
@@ -6246,12 +6261,12 @@
         <v>137</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1">
       <c r="A16" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>23</v>
@@ -6266,12 +6281,12 @@
         <v>131</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>23</v>
@@ -6286,7 +6301,7 @@
         <v>131</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" ht="29.25" customHeight="1">
@@ -6297,7 +6312,7 @@
         <v>160</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>161</v>
@@ -6306,7 +6321,7 @@
         <v>131</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="4" customFormat="1">
@@ -6317,7 +6332,7 @@
         <v>160</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>161</v>
@@ -6326,18 +6341,18 @@
         <v>131</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1">
       <c r="A20" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>133</v>
@@ -6346,18 +6361,18 @@
         <v>131</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1">
       <c r="A21" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>133</v>
@@ -6366,18 +6381,18 @@
         <v>131</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1">
       <c r="A22" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>133</v>
@@ -6386,18 +6401,18 @@
         <v>131</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="4" customFormat="1">
       <c r="A23" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>133</v>
@@ -6406,18 +6421,18 @@
         <v>131</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="15" customFormat="1">
       <c r="A24" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>110</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>133</v>
@@ -6426,38 +6441,38 @@
         <v>137</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="13" customFormat="1">
       <c r="A25" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>110</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>161</v>
@@ -6466,18 +6481,18 @@
         <v>137</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="13" customFormat="1" ht="18.75" customHeight="1">
       <c r="A27" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>195</v>
-      </c>
       <c r="C27" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>133</v>
@@ -6486,7 +6501,7 @@
         <v>131</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -6527,7 +6542,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -6572,7 +6587,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="13" customFormat="1" ht="31.5">
@@ -6612,7 +6627,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="13" customFormat="1">
@@ -6672,15 +6687,15 @@
         <v>137</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>143</v>
@@ -6692,7 +6707,7 @@
         <v>131</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1">
@@ -6700,7 +6715,7 @@
         <v>132</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>143</v>
@@ -6712,32 +6727,32 @@
         <v>131</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="13" customFormat="1">
       <c r="A11" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>143</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="78.75">
       <c r="A12" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>42</v>
@@ -6752,7 +6767,7 @@
         <v>131</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1">
@@ -6763,7 +6778,7 @@
         <v>160</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>161</v>
@@ -6772,7 +6787,7 @@
         <v>131</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1">
@@ -6783,7 +6798,7 @@
         <v>160</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>161</v>
@@ -6792,18 +6807,18 @@
         <v>131</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1">
       <c r="A15" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
@@ -6817,13 +6832,13 @@
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1">
       <c r="A16" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>133</v>
@@ -6837,13 +6852,13 @@
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -6852,18 +6867,18 @@
         <v>131</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1">
       <c r="A18" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>133</v>
@@ -6872,18 +6887,18 @@
         <v>131</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="4" customFormat="1">
       <c r="A19" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>133</v>
@@ -6892,7 +6907,7 @@
         <v>131</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="72" customFormat="1" ht="31.5">
@@ -6903,67 +6918,67 @@
         <v>96</v>
       </c>
       <c r="C20" s="72" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D20" s="73" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E20" s="72" t="s">
         <v>137</v>
       </c>
       <c r="F20" s="72" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="15" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>137</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="13" customFormat="1">
       <c r="A22" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>161</v>
@@ -6972,7 +6987,7 @@
         <v>137</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -6987,7 +7002,7 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -7048,7 +7063,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="13" customFormat="1" ht="31.5">
@@ -7088,7 +7103,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="13" customFormat="1">
@@ -7148,15 +7163,15 @@
         <v>137</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>143</v>
@@ -7168,7 +7183,7 @@
         <v>131</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1">
@@ -7176,7 +7191,7 @@
         <v>132</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>143</v>
@@ -7188,32 +7203,32 @@
         <v>131</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="13" customFormat="1">
       <c r="A11" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>143</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="78.75">
       <c r="A12" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>42</v>
@@ -7228,7 +7243,7 @@
         <v>131</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1">
@@ -7239,7 +7254,7 @@
         <v>160</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>161</v>
@@ -7248,7 +7263,7 @@
         <v>131</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1">
@@ -7259,7 +7274,7 @@
         <v>160</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>161</v>
@@ -7268,18 +7283,18 @@
         <v>131</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1">
       <c r="A15" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
@@ -7293,13 +7308,13 @@
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1">
       <c r="A16" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>133</v>
@@ -7308,18 +7323,18 @@
         <v>131</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -7328,18 +7343,18 @@
         <v>131</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1">
       <c r="A18" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>133</v>
@@ -7348,18 +7363,18 @@
         <v>131</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="4" customFormat="1">
       <c r="A19" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>133</v>
@@ -7368,7 +7383,7 @@
         <v>131</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="38" customFormat="1" ht="31.5">
@@ -7379,67 +7394,67 @@
         <v>96</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E20" s="38" t="s">
         <v>137</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="15" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>137</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="13" customFormat="1">
       <c r="A22" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>161</v>
@@ -7448,7 +7463,7 @@
         <v>137</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -7537,7 +7552,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="13" customFormat="1" ht="31.5">
@@ -7577,7 +7592,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="13" customFormat="1">
@@ -7637,15 +7652,15 @@
         <v>137</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>143</v>
@@ -7657,7 +7672,7 @@
         <v>131</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1">
@@ -7665,7 +7680,7 @@
         <v>132</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>143</v>
@@ -7677,32 +7692,32 @@
         <v>131</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="13" customFormat="1">
       <c r="A11" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>143</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="78.75">
       <c r="A12" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>36</v>
@@ -7717,7 +7732,7 @@
         <v>131</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1">
@@ -7728,7 +7743,7 @@
         <v>160</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>161</v>
@@ -7737,7 +7752,7 @@
         <v>131</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1">
@@ -7748,7 +7763,7 @@
         <v>160</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>161</v>
@@ -7757,18 +7772,18 @@
         <v>131</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1">
       <c r="A15" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
@@ -7782,13 +7797,13 @@
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1">
       <c r="A16" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>133</v>
@@ -7797,18 +7812,18 @@
         <v>131</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -7817,18 +7832,18 @@
         <v>131</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="13" customFormat="1">
       <c r="A18" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>96</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>133</v>
@@ -7837,18 +7852,18 @@
         <v>131</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="4" customFormat="1">
       <c r="A19" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>133</v>
@@ -7857,7 +7872,7 @@
         <v>131</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="36" customFormat="1" ht="31.5">
@@ -7868,67 +7883,67 @@
         <v>96</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E20" s="36" t="s">
         <v>137</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="15" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>137</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="13" customFormat="1">
       <c r="A22" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>161</v>
@@ -7937,7 +7952,7 @@
         <v>137</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -8026,7 +8041,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="13" customFormat="1" ht="31.5">
@@ -8066,7 +8081,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="13" customFormat="1">
@@ -8126,15 +8141,15 @@
         <v>137</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>143</v>
@@ -8146,7 +8161,7 @@
         <v>131</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1">
@@ -8154,7 +8169,7 @@
         <v>132</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>143</v>
@@ -8166,27 +8181,27 @@
         <v>131</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="13" customFormat="1">
       <c r="A11" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>143</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1">
@@ -8197,7 +8212,7 @@
         <v>160</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>161</v>
@@ -8206,7 +8221,7 @@
         <v>131</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1">
@@ -8217,7 +8232,7 @@
         <v>160</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>161</v>
@@ -8226,18 +8241,18 @@
         <v>131</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1">
       <c r="A14" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
@@ -8251,13 +8266,13 @@
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1">
       <c r="A15" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>133</v>
@@ -8266,18 +8281,18 @@
         <v>131</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1">
       <c r="A16" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -8286,18 +8301,18 @@
         <v>131</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="13" customFormat="1">
       <c r="A17" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>96</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>133</v>
@@ -8306,18 +8321,18 @@
         <v>131</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1">
       <c r="A18" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>133</v>
@@ -8326,7 +8341,7 @@
         <v>131</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="36" customFormat="1" ht="31.5">
@@ -8337,67 +8352,67 @@
         <v>96</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E19" s="36" t="s">
         <v>137</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="15" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>137</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="13" customFormat="1">
       <c r="A21" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>161</v>
@@ -8406,7 +8421,7 @@
         <v>137</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -8495,7 +8510,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="13" customFormat="1" ht="31.5">
@@ -8535,7 +8550,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="13" customFormat="1">
@@ -8595,15 +8610,15 @@
         <v>137</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>143</v>
@@ -8615,7 +8630,7 @@
         <v>131</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1">
@@ -8623,7 +8638,7 @@
         <v>132</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>143</v>
@@ -8635,27 +8650,27 @@
         <v>131</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="13" customFormat="1">
       <c r="A11" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>143</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1">
@@ -8666,7 +8681,7 @@
         <v>160</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>161</v>
@@ -8675,7 +8690,7 @@
         <v>131</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1">
@@ -8686,7 +8701,7 @@
         <v>160</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>161</v>
@@ -8695,18 +8710,18 @@
         <v>131</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1">
       <c r="A14" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
@@ -8720,13 +8735,13 @@
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1">
       <c r="A15" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>133</v>
@@ -8735,18 +8750,18 @@
         <v>131</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1">
       <c r="A16" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -8755,18 +8770,18 @@
         <v>131</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1">
       <c r="A17" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>133</v>
@@ -8775,18 +8790,18 @@
         <v>131</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1">
       <c r="A18" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>133</v>
@@ -8795,7 +8810,7 @@
         <v>131</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="36" customFormat="1" ht="31.5">
@@ -8806,67 +8821,67 @@
         <v>96</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E19" s="36" t="s">
         <v>137</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="15" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>137</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="13" customFormat="1">
       <c r="A21" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>161</v>
@@ -8875,7 +8890,7 @@
         <v>137</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1">
@@ -8925,7 +8940,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -8955,13 +8970,13 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1">
       <c r="A3" s="28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D3" s="50">
         <v>1</v>
@@ -8970,7 +8985,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
@@ -8978,10 +8993,10 @@
         <v>128</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D4" s="50">
         <v>1</v>
@@ -8990,7 +9005,7 @@
         <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -8998,10 +9013,10 @@
         <v>134</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D5" s="52" t="s">
         <v>133</v>
@@ -9010,7 +9025,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1">
@@ -9021,7 +9036,7 @@
         <v>160</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>161</v>
@@ -9030,7 +9045,7 @@
         <v>131</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1">
@@ -9041,7 +9056,7 @@
         <v>160</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>161</v>
@@ -9050,7 +9065,7 @@
         <v>131</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="64" customFormat="1">
@@ -9058,10 +9073,10 @@
         <v>136</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D8" s="65">
         <v>1</v>
@@ -9070,18 +9085,18 @@
         <v>137</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D9" s="53" t="s">
         <v>161</v>
@@ -9093,13 +9108,13 @@
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1">
       <c r="A10" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D10" s="50">
         <v>1</v>
@@ -9108,18 +9123,18 @@
         <v>131</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1">
       <c r="A11" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D11" s="50">
         <v>1</v>
@@ -9128,38 +9143,38 @@
         <v>131</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D12" s="50">
+        <v>1</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>204</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="D12" s="50">
-        <v>1</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D13" s="51" t="s">
         <v>133</v>
@@ -9168,18 +9183,18 @@
         <v>131</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1">
       <c r="A14" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D14" s="50">
         <v>1</v>
@@ -9188,7 +9203,7 @@
         <v>131</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -9235,7 +9250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9252,7 +9267,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="42">
       <c r="A1" s="30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -9282,13 +9297,13 @@
     </row>
     <row r="3" spans="1:6" s="25" customFormat="1">
       <c r="A3" s="25" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D3" s="31">
         <v>1</v>
@@ -9297,7 +9312,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="25" customFormat="1">
@@ -9305,10 +9320,10 @@
         <v>128</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D4" s="31">
         <v>1</v>
@@ -9317,7 +9332,7 @@
         <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -9325,10 +9340,10 @@
         <v>134</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>133</v>
@@ -9337,7 +9352,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="61" customFormat="1" ht="76.5" customHeight="1">
@@ -9348,7 +9363,7 @@
         <v>160</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D6" s="66" t="s">
         <v>133</v>
@@ -9357,7 +9372,7 @@
         <v>131</v>
       </c>
       <c r="F6" s="61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9368,7 +9383,7 @@
         <v>160</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>133</v>
@@ -9377,7 +9392,7 @@
         <v>131</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="25" customFormat="1">
@@ -9385,10 +9400,10 @@
         <v>136</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D8" s="31">
         <v>1</v>
@@ -9397,38 +9412,38 @@
         <v>137</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.5">
       <c r="A9" s="25" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>131</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>161</v>
@@ -9437,18 +9452,18 @@
         <v>131</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>161</v>
@@ -9457,18 +9472,18 @@
         <v>131</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="31.5">
       <c r="A12" s="25" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D12" s="25">
         <v>1</v>
@@ -9477,7 +9492,7 @@
         <v>131</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -9504,7 +9519,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="42">
       <c r="A1" s="30" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -9534,13 +9549,13 @@
     </row>
     <row r="3" spans="1:6" s="25" customFormat="1">
       <c r="A3" s="25" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D3" s="31">
         <v>1</v>
@@ -9549,7 +9564,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="25" customFormat="1">
@@ -9557,10 +9572,10 @@
         <v>128</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D4" s="31">
         <v>1</v>
@@ -9569,7 +9584,7 @@
         <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -9577,10 +9592,10 @@
         <v>134</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>133</v>
@@ -9589,7 +9604,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="61" customFormat="1" ht="76.5" customHeight="1">
@@ -9600,7 +9615,7 @@
         <v>160</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D6" s="66" t="s">
         <v>133</v>
@@ -9609,7 +9624,7 @@
         <v>131</v>
       </c>
       <c r="F6" s="61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9620,7 +9635,7 @@
         <v>160</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>133</v>
@@ -9629,7 +9644,7 @@
         <v>131</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="25" customFormat="1">
@@ -9637,10 +9652,10 @@
         <v>136</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D8" s="31">
         <v>1</v>
@@ -9649,38 +9664,38 @@
         <v>137</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>131</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>161</v>
@@ -9689,18 +9704,18 @@
         <v>131</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="25" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D11" s="25">
         <v>1</v>
@@ -9709,7 +9724,7 @@
         <v>131</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -9737,7 +9752,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -9767,13 +9782,13 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1">
       <c r="A3" s="28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D3" s="50">
         <v>1</v>
@@ -9782,7 +9797,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
@@ -9790,10 +9805,10 @@
         <v>128</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D4" s="50">
         <v>1</v>
@@ -9802,7 +9817,7 @@
         <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -9810,10 +9825,10 @@
         <v>134</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D5" s="52" t="s">
         <v>133</v>
@@ -9822,7 +9837,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1">
@@ -9833,7 +9848,7 @@
         <v>160</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>161</v>
@@ -9842,7 +9857,7 @@
         <v>131</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1">
@@ -9853,7 +9868,7 @@
         <v>160</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>161</v>
@@ -9862,18 +9877,18 @@
         <v>131</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1">
       <c r="A8" s="28" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D8" s="50">
         <v>1</v>
@@ -9882,18 +9897,18 @@
         <v>131</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1">
       <c r="A9" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D9" s="50">
         <v>1</v>
@@ -9902,38 +9917,38 @@
         <v>131</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="50">
+        <v>1</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>204</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="D10" s="50">
-        <v>1</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D11" s="31">
         <v>1</v>
@@ -9942,7 +9957,7 @@
         <v>131</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="28" customFormat="1">
@@ -9950,10 +9965,10 @@
         <v>136</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D12" s="31">
         <v>1</v>
@@ -9962,7 +9977,7 @@
         <v>137</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -9993,7 +10008,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -10023,13 +10038,13 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1">
       <c r="A3" s="28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D3" s="50">
         <v>1</v>
@@ -10038,7 +10053,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
@@ -10046,10 +10061,10 @@
         <v>128</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D4" s="50">
         <v>1</v>
@@ -10058,7 +10073,7 @@
         <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10066,10 +10081,10 @@
         <v>134</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D5" s="52" t="s">
         <v>133</v>
@@ -10078,7 +10093,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1">
@@ -10089,7 +10104,7 @@
         <v>160</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>161</v>
@@ -10098,7 +10113,7 @@
         <v>131</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1">
@@ -10109,7 +10124,7 @@
         <v>160</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>161</v>
@@ -10118,18 +10133,18 @@
         <v>131</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1">
       <c r="A8" s="28" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D8" s="50">
         <v>1</v>
@@ -10138,18 +10153,18 @@
         <v>131</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1">
       <c r="A9" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D9" s="50">
         <v>1</v>
@@ -10158,38 +10173,38 @@
         <v>131</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="50">
+        <v>1</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>204</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="D10" s="50">
-        <v>1</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D11" s="51" t="s">
         <v>133</v>
@@ -10198,7 +10213,7 @@
         <v>131</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="28" customFormat="1">
@@ -10206,10 +10221,10 @@
         <v>136</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D12" s="50">
         <v>1</v>
@@ -10218,38 +10233,38 @@
         <v>137</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="51" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E13" s="51" t="s">
         <v>131</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="51" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>161</v>
@@ -10258,7 +10273,7 @@
         <v>131</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -10270,8 +10285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -10287,7 +10302,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -10317,13 +10332,13 @@
     </row>
     <row r="3" spans="1:6" s="25" customFormat="1">
       <c r="A3" s="25" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D3" s="31">
         <v>1</v>
@@ -10332,7 +10347,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="25" customFormat="1">
@@ -10340,10 +10355,10 @@
         <v>128</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D4" s="31">
         <v>1</v>
@@ -10352,7 +10367,7 @@
         <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10360,10 +10375,10 @@
         <v>134</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>133</v>
@@ -10372,7 +10387,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="61" customFormat="1" ht="76.5" customHeight="1">
@@ -10383,7 +10398,7 @@
         <v>160</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D6" s="66" t="s">
         <v>133</v>
@@ -10392,7 +10407,7 @@
         <v>131</v>
       </c>
       <c r="F6" s="61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10403,7 +10418,7 @@
         <v>160</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>133</v>
@@ -10412,7 +10427,7 @@
         <v>131</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="25" customFormat="1">
@@ -10420,10 +10435,10 @@
         <v>136</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D8" s="31">
         <v>1</v>
@@ -10432,18 +10447,18 @@
         <v>137</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="25" customFormat="1">
       <c r="A9" s="25" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D9" s="31">
         <v>1</v>
@@ -10452,18 +10467,18 @@
         <v>131</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="26" customFormat="1" ht="17.25" customHeight="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="26" customFormat="1" ht="77.25" customHeight="1">
       <c r="A10" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>133</v>
@@ -10472,18 +10487,18 @@
         <v>131</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>211</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="25" customFormat="1" ht="14.25" customHeight="1">
       <c r="A11" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D11" s="31">
         <v>1</v>
@@ -10492,7 +10507,7 @@
         <v>131</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="77" customFormat="1"/>
@@ -10509,7 +10524,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -10555,13 +10570,13 @@
     </row>
     <row r="3" spans="1:6" s="25" customFormat="1">
       <c r="A3" s="25" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D3" s="31">
         <v>1</v>
@@ -10570,7 +10585,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="25" customFormat="1">
@@ -10578,10 +10593,10 @@
         <v>128</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D4" s="31">
         <v>1</v>
@@ -10590,7 +10605,7 @@
         <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10598,10 +10613,10 @@
         <v>134</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>133</v>
@@ -10610,7 +10625,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="61" customFormat="1" ht="72.75" customHeight="1">
@@ -10621,7 +10636,7 @@
         <v>160</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D6" s="66" t="s">
         <v>133</v>
@@ -10630,7 +10645,7 @@
         <v>131</v>
       </c>
       <c r="F6" s="61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10641,7 +10656,7 @@
         <v>160</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>133</v>
@@ -10650,7 +10665,7 @@
         <v>131</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="25" customFormat="1">
@@ -10658,10 +10673,10 @@
         <v>136</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D8" s="31">
         <v>1</v>
@@ -10670,38 +10685,38 @@
         <v>137</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="25" customFormat="1">
       <c r="A9" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" s="31">
+        <v>1</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="26" customFormat="1" ht="77.25" customHeight="1">
+      <c r="A10" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D9" s="31">
-        <v>1</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="26" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A10" s="34" t="s">
-        <v>210</v>
-      </c>
       <c r="B10" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>133</v>
@@ -10710,18 +10725,18 @@
         <v>131</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="25" customFormat="1" ht="14.25" customHeight="1">
       <c r="A11" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D11" s="31">
         <v>1</v>
@@ -10730,7 +10745,7 @@
         <v>131</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -10774,7 +10789,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -10810,7 +10825,7 @@
         <v>160</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>161</v>
@@ -10819,7 +10834,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1">
@@ -10830,7 +10845,7 @@
         <v>160</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>161</v>
@@ -10839,18 +10854,18 @@
         <v>131</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -10859,7 +10874,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1">
@@ -10867,10 +10882,10 @@
         <v>128</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -10879,7 +10894,7 @@
         <v>131</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10887,10 +10902,10 @@
         <v>134</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>133</v>
@@ -10899,18 +10914,18 @@
         <v>131</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -10919,18 +10934,18 @@
         <v>131</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="36" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D9" s="39">
         <v>1</v>
@@ -10942,13 +10957,13 @@
     </row>
     <row r="10" spans="1:6" s="36" customFormat="1" ht="46.5" customHeight="1">
       <c r="A10" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D10" s="37">
         <v>1</v>
@@ -10957,7 +10972,7 @@
         <v>131</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1">
@@ -10965,19 +10980,19 @@
         <v>136</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -11012,8 +11027,8 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C6" sqref="C5:C6"/>
+    <sheetView topLeftCell="C13" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F16" sqref="F15:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -11028,7 +11043,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -11064,7 +11079,7 @@
         <v>160</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>161</v>
@@ -11073,7 +11088,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1">
@@ -11084,7 +11099,7 @@
         <v>160</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>161</v>
@@ -11093,18 +11108,18 @@
         <v>131</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -11113,7 +11128,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1">
@@ -11121,10 +11136,10 @@
         <v>128</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -11133,7 +11148,7 @@
         <v>131</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11141,10 +11156,10 @@
         <v>134</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>133</v>
@@ -11153,18 +11168,18 @@
         <v>131</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -11173,18 +11188,18 @@
         <v>131</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -11193,18 +11208,18 @@
         <v>131</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="13" customFormat="1">
       <c r="A10" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>98</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>133</v>
@@ -11213,18 +11228,18 @@
         <v>131</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="13" customFormat="1">
       <c r="A11" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -11233,18 +11248,18 @@
         <v>131</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="15" customFormat="1" ht="47.25" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>133</v>
@@ -11253,7 +11268,7 @@
         <v>131</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="39" customHeight="1">
@@ -11264,7 +11279,7 @@
         <v>98</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -11273,18 +11288,18 @@
         <v>137</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="13" customFormat="1" ht="66" customHeight="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="13" customFormat="1" ht="96.75" customHeight="1">
       <c r="A14" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>133</v>
@@ -11293,18 +11308,18 @@
         <v>131</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>219</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="13" customFormat="1" ht="36" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>133</v>
@@ -11313,7 +11328,7 @@
         <v>131</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -11348,8 +11363,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -11364,7 +11379,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -11400,7 +11415,7 @@
         <v>160</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>161</v>
@@ -11409,7 +11424,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1">
@@ -11420,7 +11435,7 @@
         <v>160</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>161</v>
@@ -11429,18 +11444,18 @@
         <v>131</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -11449,7 +11464,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1">
@@ -11457,10 +11472,10 @@
         <v>128</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -11469,7 +11484,7 @@
         <v>131</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11477,10 +11492,10 @@
         <v>134</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>133</v>
@@ -11489,18 +11504,18 @@
         <v>131</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="54.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -11509,18 +11524,18 @@
         <v>131</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="98.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -11529,18 +11544,18 @@
         <v>131</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>174</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="13" customFormat="1">
       <c r="A10" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>98</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>133</v>
@@ -11549,18 +11564,18 @@
         <v>131</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="13" customFormat="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="13" customFormat="1" ht="36.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -11569,18 +11584,18 @@
         <v>131</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>133</v>
@@ -11589,7 +11604,7 @@
         <v>131</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1">
@@ -11600,7 +11615,7 @@
         <v>98</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -11609,7 +11624,7 @@
         <v>137</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -11644,8 +11659,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="B13" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -11660,7 +11675,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -11690,47 +11705,47 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>131</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="64" customFormat="1">
       <c r="A4" s="64" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C4" s="64" t="s">
         <v>130</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E4" s="64" t="s">
         <v>137</v>
       </c>
       <c r="F4" s="67" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>47</v>
@@ -11745,12 +11760,12 @@
         <v>131</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>47</v>
@@ -11765,7 +11780,7 @@
         <v>137</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="15" customFormat="1">
@@ -11779,18 +11794,18 @@
         <v>143</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>137</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="13" customFormat="1">
       <c r="A8" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>47</v>
@@ -11799,18 +11814,18 @@
         <v>143</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>131</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="56" customFormat="1" ht="43.5" customHeight="1">
       <c r="A9" s="56" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B9" s="56" t="s">
         <v>47</v>
@@ -11819,24 +11834,24 @@
         <v>143</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9" s="56" t="s">
         <v>137</v>
       </c>
       <c r="F9" s="56" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -11845,7 +11860,7 @@
         <v>131</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1">
@@ -11853,10 +11868,10 @@
         <v>128</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -11865,7 +11880,7 @@
         <v>131</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -11873,10 +11888,10 @@
         <v>134</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>133</v>
@@ -11885,7 +11900,7 @@
         <v>131</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1">
@@ -11896,7 +11911,7 @@
         <v>160</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>161</v>
@@ -11905,7 +11920,7 @@
         <v>131</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1">
@@ -11916,7 +11931,7 @@
         <v>160</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>161</v>
@@ -11925,18 +11940,18 @@
         <v>131</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1">
       <c r="A15" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -11945,18 +11960,18 @@
         <v>131</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1">
       <c r="A16" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -11965,38 +11980,38 @@
         <v>131</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -12005,18 +12020,18 @@
         <v>131</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1">
       <c r="A19" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -12025,18 +12040,18 @@
         <v>131</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="13" customFormat="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="13" customFormat="1" ht="94.5" customHeight="1">
       <c r="A20" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>133</v>
@@ -12045,67 +12060,67 @@
         <v>137</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>230</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="15" customFormat="1">
       <c r="A21" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>137</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="64" customFormat="1">
       <c r="A22" s="64" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D22" s="65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E22" s="64" t="s">
         <v>137</v>
       </c>
       <c r="F22" s="67" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="51" customFormat="1">
       <c r="A23" s="51" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E23" s="51" t="s">
         <v>137</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -13066,7 +13081,7 @@
         <v>77</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="31.5">
@@ -13851,7 +13866,7 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -13908,7 +13923,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="36" customFormat="1" ht="23.25" customHeight="1">
@@ -13928,7 +13943,7 @@
         <v>131</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -13948,7 +13963,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="63" customFormat="1" ht="62.25" customHeight="1">
@@ -13968,15 +13983,15 @@
         <v>137</v>
       </c>
       <c r="F6" s="72" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A7" s="36" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>130</v>
@@ -13988,15 +14003,15 @@
         <v>131</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="36" customFormat="1">
       <c r="A8" s="36" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>130</v>
@@ -14008,15 +14023,15 @@
         <v>131</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="25.5" customHeight="1">
       <c r="A9" s="44" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>130</v>
@@ -14028,15 +14043,15 @@
         <v>131</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.5" customHeight="1">
       <c r="A10" s="44" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>130</v>
@@ -14048,7 +14063,7 @@
         <v>131</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="36" customFormat="1" ht="21.75" customHeight="1">
@@ -14068,7 +14083,7 @@
         <v>131</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="36" customFormat="1">
@@ -14088,7 +14103,7 @@
         <v>131</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="36" customFormat="1">
@@ -14108,7 +14123,7 @@
         <v>131</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="36" customFormat="1">
@@ -14128,7 +14143,7 @@
         <v>131</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="36" customFormat="1">
@@ -14148,7 +14163,7 @@
         <v>137</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="36" customFormat="1">
@@ -14168,7 +14183,7 @@
         <v>137</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -14215,7 +14230,7 @@
         <v>46</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -14259,7 +14274,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
@@ -14279,7 +14294,7 @@
         <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
@@ -14299,7 +14314,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1">
@@ -14319,7 +14334,7 @@
         <v>137</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1">
@@ -14327,7 +14342,7 @@
         <v>138</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>130</v>
@@ -14339,7 +14354,7 @@
         <v>137</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1">
@@ -14359,7 +14374,7 @@
         <v>131</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1">
@@ -14379,7 +14394,7 @@
         <v>131</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -14399,7 +14414,7 @@
         <v>131</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1">
@@ -14419,7 +14434,7 @@
         <v>131</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -14439,7 +14454,7 @@
         <v>137</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="12" customFormat="1">
@@ -14459,7 +14474,7 @@
         <v>137</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -14499,8 +14514,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="B4" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -14515,7 +14530,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -14560,7 +14575,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
@@ -14580,7 +14595,7 @@
         <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="12" customFormat="1">
@@ -14600,7 +14615,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1">
@@ -14620,7 +14635,7 @@
         <v>137</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="36" customFormat="1" ht="51" customHeight="1">
@@ -14640,7 +14655,7 @@
         <v>137</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1">
@@ -14660,7 +14675,7 @@
         <v>131</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="13" customFormat="1">
@@ -14680,7 +14695,7 @@
         <v>131</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="12" customFormat="1">
@@ -14700,7 +14715,7 @@
         <v>131</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="13" customFormat="1" ht="31.5">
@@ -14740,7 +14755,7 @@
         <v>137</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="12" customFormat="1">
@@ -14760,7 +14775,7 @@
         <v>137</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="12" customFormat="1">
@@ -14780,7 +14795,7 @@
         <v>131</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="13" customFormat="1">
@@ -14800,7 +14815,7 @@
         <v>131</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="36" customFormat="1" ht="31.5">
@@ -14820,7 +14835,7 @@
         <v>131</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -14851,7 +14866,7 @@
         <v>160</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>161</v>
@@ -14860,7 +14875,7 @@
         <v>131</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="4" customFormat="1">
@@ -14871,7 +14886,7 @@
         <v>160</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>161</v>
@@ -14880,18 +14895,18 @@
         <v>131</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1">
       <c r="A20" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>133</v>
@@ -14900,78 +14915,78 @@
         <v>131</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1">
-      <c r="A21" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="A21" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>271</v>
+      <c r="E21" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="44" customFormat="1" ht="28.5" customHeight="1">
       <c r="A22" s="44" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E22" s="44" t="s">
         <v>137</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="45" customFormat="1" ht="33" customHeight="1">
       <c r="A23" s="45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E23" s="45" t="s">
         <v>137</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="40" customFormat="1" ht="66.75" customHeight="1">
       <c r="A24" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="B24" s="42" t="s">
-        <v>169</v>
-      </c>
       <c r="C24" s="42" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D24" s="42" t="s">
         <v>161</v>
@@ -14980,18 +14995,18 @@
         <v>131</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>161</v>
@@ -15000,7 +15015,7 @@
         <v>137</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -15044,7 +15059,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -15089,7 +15104,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
@@ -15109,7 +15124,7 @@
         <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1">
@@ -15129,7 +15144,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1">
@@ -15149,7 +15164,7 @@
         <v>137</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1">
@@ -15169,7 +15184,7 @@
         <v>137</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1">
@@ -15189,7 +15204,7 @@
         <v>131</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="13" customFormat="1">
@@ -15209,7 +15224,7 @@
         <v>131</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1">
@@ -15229,7 +15244,7 @@
         <v>131</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="13" customFormat="1" ht="31.5">
@@ -15269,7 +15284,7 @@
         <v>137</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="12" customFormat="1">
@@ -15289,7 +15304,7 @@
         <v>137</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="60" customFormat="1">
@@ -15309,7 +15324,7 @@
         <v>131</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="13" customFormat="1">
@@ -15329,12 +15344,12 @@
         <v>131</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1">
       <c r="A16" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>40</v>
@@ -15349,7 +15364,7 @@
         <v>131</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1">
@@ -15360,7 +15375,7 @@
         <v>160</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>161</v>
@@ -15369,7 +15384,7 @@
         <v>131</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1">
@@ -15380,7 +15395,7 @@
         <v>160</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>161</v>
@@ -15389,18 +15404,18 @@
         <v>131</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1">
       <c r="A19" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>133</v>
@@ -15409,18 +15424,18 @@
         <v>131</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="12" customFormat="1">
       <c r="A20" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>133</v>
@@ -15429,58 +15444,58 @@
         <v>131</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="44" customFormat="1" ht="31.5">
       <c r="A21" s="44" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E21" s="44" t="s">
         <v>137</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="13" customFormat="1">
       <c r="A22" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="40" customFormat="1" ht="84.75" customHeight="1">
       <c r="A23" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="B23" s="42" t="s">
-        <v>169</v>
-      </c>
       <c r="C23" s="42" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D23" s="42" t="s">
         <v>161</v>
@@ -15489,18 +15504,18 @@
         <v>131</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>161</v>
@@ -15509,7 +15524,7 @@
         <v>137</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -15564,7 +15579,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B1" s="69"/>
       <c r="C1" s="7"/>
@@ -15609,7 +15624,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
@@ -15629,7 +15644,7 @@
         <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1">
@@ -15649,7 +15664,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1">
@@ -15669,7 +15684,7 @@
         <v>137</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1">
@@ -15689,7 +15704,7 @@
         <v>137</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1">
@@ -15709,7 +15724,7 @@
         <v>131</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="13" customFormat="1">
@@ -15729,7 +15744,7 @@
         <v>131</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1">
@@ -15749,7 +15764,7 @@
         <v>131</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="13" customFormat="1">
@@ -15789,7 +15804,7 @@
         <v>137</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="12" customFormat="1">
@@ -15809,7 +15824,7 @@
         <v>137</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="12" customFormat="1">
@@ -15829,7 +15844,7 @@
         <v>131</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="13" customFormat="1">
@@ -15849,12 +15864,12 @@
         <v>131</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="63.75" customHeight="1">
       <c r="A16" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" s="37" t="s">
         <v>35</v>
@@ -15869,12 +15884,12 @@
         <v>131</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="37.5" customHeight="1">
       <c r="A17" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>35</v>
@@ -15889,12 +15904,12 @@
         <v>131</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1">
       <c r="A18" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>35</v>
@@ -15903,18 +15918,18 @@
         <v>143</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1">
       <c r="A19" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>35</v>
@@ -15923,18 +15938,18 @@
         <v>143</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1">
       <c r="A20" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>34</v>
@@ -15949,7 +15964,7 @@
         <v>131</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1">
@@ -15960,7 +15975,7 @@
         <v>160</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>161</v>
@@ -15969,7 +15984,7 @@
         <v>131</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1">
@@ -15980,7 +15995,7 @@
         <v>160</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>161</v>
@@ -15989,18 +16004,18 @@
         <v>131</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>133</v>
@@ -16009,18 +16024,18 @@
         <v>131</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="12" customFormat="1">
       <c r="A24" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>133</v>
@@ -16029,58 +16044,58 @@
         <v>131</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="15" customFormat="1">
       <c r="A25" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>137</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="13" customFormat="1">
       <c r="A26" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="13" customFormat="1">
       <c r="A27" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>161</v>
@@ -16089,18 +16104,18 @@
         <v>131</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>161</v>
@@ -16109,7 +16124,7 @@
         <v>137</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -16190,7 +16205,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
@@ -16210,7 +16225,7 @@
         <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1">
@@ -16230,7 +16245,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1">
@@ -16250,7 +16265,7 @@
         <v>137</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1">
@@ -16270,7 +16285,7 @@
         <v>137</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1">
@@ -16290,7 +16305,7 @@
         <v>131</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="13" customFormat="1">
@@ -16310,7 +16325,7 @@
         <v>131</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1">
@@ -16330,7 +16345,7 @@
         <v>131</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="13" customFormat="1" ht="78.75">
@@ -16370,7 +16385,7 @@
         <v>137</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="12" customFormat="1">
@@ -16390,7 +16405,7 @@
         <v>137</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="12" customFormat="1">
@@ -16410,7 +16425,7 @@
         <v>131</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="13" customFormat="1">
@@ -16430,12 +16445,12 @@
         <v>131</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>35</v>
@@ -16450,12 +16465,12 @@
         <v>131</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1">
       <c r="A17" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>35</v>
@@ -16470,12 +16485,12 @@
         <v>131</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1">
       <c r="A18" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>35</v>
@@ -16484,18 +16499,18 @@
         <v>143</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1">
       <c r="A19" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>35</v>
@@ -16504,18 +16519,18 @@
         <v>143</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1">
       <c r="A20" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>38</v>
@@ -16530,7 +16545,7 @@
         <v>131</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1">
@@ -16541,7 +16556,7 @@
         <v>160</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>161</v>
@@ -16550,7 +16565,7 @@
         <v>131</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1">
@@ -16561,7 +16576,7 @@
         <v>160</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>161</v>
@@ -16570,18 +16585,18 @@
         <v>131</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>133</v>
@@ -16590,18 +16605,18 @@
         <v>131</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="12" customFormat="1">
       <c r="A24" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>133</v>
@@ -16610,58 +16625,58 @@
         <v>131</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="15" customFormat="1">
       <c r="A25" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>137</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="13" customFormat="1">
       <c r="A26" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="13" customFormat="1">
       <c r="A27" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>161</v>
@@ -16670,18 +16685,18 @@
         <v>131</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>161</v>
@@ -16690,7 +16705,7 @@
         <v>137</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -16779,7 +16794,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
@@ -16799,7 +16814,7 @@
         <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1">
@@ -16819,7 +16834,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1">
@@ -16839,7 +16854,7 @@
         <v>137</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1">
@@ -16859,7 +16874,7 @@
         <v>137</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1">
@@ -16879,7 +16894,7 @@
         <v>131</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="13" customFormat="1">
@@ -16899,7 +16914,7 @@
         <v>131</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1">
@@ -16919,7 +16934,7 @@
         <v>131</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="13" customFormat="1">
@@ -16959,7 +16974,7 @@
         <v>137</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="12" customFormat="1">
@@ -16979,7 +16994,7 @@
         <v>137</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="12" customFormat="1">
@@ -16999,7 +17014,7 @@
         <v>131</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="13" customFormat="1">
@@ -17019,12 +17034,12 @@
         <v>131</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="38" customFormat="1" ht="68.25" customHeight="1">
       <c r="A16" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>35</v>
@@ -17039,12 +17054,12 @@
         <v>131</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1">
       <c r="A17" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>35</v>
@@ -17059,12 +17074,12 @@
         <v>131</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1">
       <c r="A18" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>35</v>
@@ -17073,18 +17088,18 @@
         <v>143</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1">
       <c r="A19" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>35</v>
@@ -17093,18 +17108,18 @@
         <v>143</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1">
       <c r="A20" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>48</v>
@@ -17119,7 +17134,7 @@
         <v>131</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1">
@@ -17130,7 +17145,7 @@
         <v>160</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>161</v>
@@ -17139,7 +17154,7 @@
         <v>131</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1">
@@ -17150,7 +17165,7 @@
         <v>160</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>161</v>
@@ -17159,18 +17174,18 @@
         <v>131</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>133</v>
@@ -17179,18 +17194,18 @@
         <v>131</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="12" customFormat="1">
       <c r="A24" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>133</v>
@@ -17199,58 +17214,58 @@
         <v>131</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="15" customFormat="1">
       <c r="A25" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>137</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="13" customFormat="1">
       <c r="A26" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="13" customFormat="1">
       <c r="A27" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>161</v>
@@ -17259,18 +17274,18 @@
         <v>131</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>161</v>
@@ -17279,7 +17294,7 @@
         <v>137</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -17368,7 +17383,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
@@ -17388,7 +17403,7 @@
         <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1">
@@ -17408,7 +17423,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1">
@@ -17428,7 +17443,7 @@
         <v>137</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1">
@@ -17448,7 +17463,7 @@
         <v>137</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1">
@@ -17468,7 +17483,7 @@
         <v>131</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="13" customFormat="1">
@@ -17488,7 +17503,7 @@
         <v>131</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1">
@@ -17508,7 +17523,7 @@
         <v>131</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="13" customFormat="1">
@@ -17548,7 +17563,7 @@
         <v>137</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="12" customFormat="1">
@@ -17568,7 +17583,7 @@
         <v>137</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="12" customFormat="1">
@@ -17588,7 +17603,7 @@
         <v>131</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="13" customFormat="1">
@@ -17608,12 +17623,12 @@
         <v>131</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="36" customFormat="1" ht="60" customHeight="1">
       <c r="A16" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>35</v>
@@ -17628,12 +17643,12 @@
         <v>131</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1">
       <c r="A17" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>35</v>
@@ -17648,12 +17663,12 @@
         <v>131</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1">
       <c r="A18" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>35</v>
@@ -17662,18 +17677,18 @@
         <v>143</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1">
       <c r="A19" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>35</v>
@@ -17682,18 +17697,18 @@
         <v>143</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1">
       <c r="A20" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>41</v>
@@ -17708,7 +17723,7 @@
         <v>131</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1">
@@ -17719,7 +17734,7 @@
         <v>160</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>161</v>
@@ -17728,7 +17743,7 @@
         <v>131</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1">
@@ -17739,7 +17754,7 @@
         <v>160</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>161</v>
@@ -17748,18 +17763,18 @@
         <v>131</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>133</v>
@@ -17768,18 +17783,18 @@
         <v>131</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="12" customFormat="1">
       <c r="A24" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>133</v>
@@ -17788,58 +17803,58 @@
         <v>131</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="15" customFormat="1">
       <c r="A25" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>137</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="13" customFormat="1">
       <c r="A26" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="13" customFormat="1">
       <c r="A27" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>161</v>
@@ -17848,18 +17863,18 @@
         <v>131</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>161</v>
@@ -17868,7 +17883,7 @@
         <v>137</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/2. objectcatalogus/IMKL2015 v 1.0RC1plus-object-attributen-ExtraRegels.xlsx
+++ b/2. objectcatalogus/IMKL2015 v 1.0RC1plus-object-attributen-ExtraRegels.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="17175" windowHeight="7125" tabRatio="875" firstSheet="21" activeTab="29"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="17175" windowHeight="7125" tabRatio="875" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="IMKL2.2ExtraRegels" sheetId="23" state="hidden" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3542" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3542" uniqueCount="337">
   <si>
     <t>IMKL2.2 Extra regels</t>
   </si>
@@ -2242,6 +2242,9 @@
 • urn:ogc:def:uom:OGC::cm
 • urn:ogc:def:uom:OGC::mm</t>
   </si>
+  <si>
+    <t>Deze info zit al in de UtilityLinkSet. Op niveau van de individuele link is dit niet meer nodig. Wordt bijgevolg genegeerd als toch meegegeven wordt.</t>
+  </si>
 </sst>
 </file>
 
@@ -2367,7 +2370,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2404,6 +2407,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2863,7 +2872,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3050,6 +3059,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5349,8 +5364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -11659,8 +11674,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -11779,7 +11794,7 @@
       <c r="E6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="78" t="s">
         <v>225</v>
       </c>
     </row>
@@ -11799,7 +11814,7 @@
       <c r="E7" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="79" t="s">
         <v>226</v>
       </c>
     </row>
@@ -13866,8 +13881,8 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -14083,7 +14098,7 @@
         <v>131</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="36" customFormat="1">
@@ -14103,7 +14118,7 @@
         <v>131</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="36" customFormat="1">
@@ -14123,7 +14138,7 @@
         <v>131</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="36" customFormat="1">
@@ -14143,7 +14158,7 @@
         <v>131</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="36" customFormat="1">
@@ -14163,7 +14178,7 @@
         <v>137</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="36" customFormat="1">
@@ -14183,7 +14198,7 @@
         <v>137</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -14211,8 +14226,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -14374,7 +14389,7 @@
         <v>131</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1">
@@ -14394,7 +14409,7 @@
         <v>131</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -14414,7 +14429,7 @@
         <v>131</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1">
@@ -14434,7 +14449,7 @@
         <v>131</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -14454,7 +14469,7 @@
         <v>137</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="12" customFormat="1">
@@ -14474,7 +14489,7 @@
         <v>137</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -14514,7 +14529,7 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>

--- a/2. objectcatalogus/IMKL2015 v 1.0RC1plus-object-attributen-ExtraRegels.xlsx
+++ b/2. objectcatalogus/IMKL2015 v 1.0RC1plus-object-attributen-ExtraRegels.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="17175" windowHeight="7125" tabRatio="875" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="17175" windowHeight="7125" tabRatio="875" firstSheet="17" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="IMKL2.2ExtraRegels" sheetId="23" state="hidden" r:id="rId1"/>
@@ -2872,7 +2872,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3067,6 +3067,11 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="447">
     <cellStyle name="Gevolgde hyperlink" xfId="356" builtinId="9" hidden="1"/>
@@ -4211,8 +4216,8 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4535,63 +4540,63 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="13" customFormat="1">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:6" s="82" customFormat="1">
+      <c r="A17" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="82" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="13" customFormat="1">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:6" s="82" customFormat="1">
+      <c r="A18" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="82" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="13" customFormat="1">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:6" s="82" customFormat="1">
+      <c r="A19" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="82" t="s">
         <v>280</v>
       </c>
     </row>
@@ -4795,7 +4800,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5118,63 +5123,63 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="13" customFormat="1">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:6" s="82" customFormat="1">
+      <c r="A17" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="82" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="13" customFormat="1">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:6" s="82" customFormat="1">
+      <c r="A18" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="82" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="13" customFormat="1">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:6" s="82" customFormat="1">
+      <c r="A19" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="82" t="s">
         <v>280</v>
       </c>
     </row>
@@ -5364,8 +5369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5688,23 +5693,23 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:6" s="64" customFormat="1">
+      <c r="A17" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="64" t="s">
         <v>177</v>
       </c>
     </row>
@@ -6541,8 +6546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -8939,7 +8944,7 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -10300,7 +10305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -11674,8 +11679,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -14529,8 +14534,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -15578,8 +15583,8 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F19" sqref="F18:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -15938,7 +15943,7 @@
       <c r="E18" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="64" t="s">
         <v>177</v>
       </c>
     </row>
@@ -15958,7 +15963,7 @@
       <c r="E19" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="64" t="s">
         <v>177</v>
       </c>
     </row>
@@ -16167,11 +16172,14 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="6" max="6" width="31.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="6" t="s">
@@ -16479,7 +16487,7 @@
       <c r="E16" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="80" t="s">
         <v>173</v>
       </c>
     </row>
@@ -16503,43 +16511,43 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:6" s="64" customFormat="1">
+      <c r="A18" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="64" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:6" s="64" customFormat="1">
+      <c r="A19" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="64" t="s">
         <v>177</v>
       </c>
     </row>
@@ -16748,7 +16756,7 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -17337,7 +17345,7 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>

--- a/2. objectcatalogus/IMKL2015 v 1.0RC1plus-object-attributen-ExtraRegels.xlsx
+++ b/2. objectcatalogus/IMKL2015 v 1.0RC1plus-object-attributen-ExtraRegels.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="17175" windowHeight="7125" tabRatio="875" firstSheet="17" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="17175" windowHeight="7125" tabRatio="875" firstSheet="22" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="IMKL2.2ExtraRegels" sheetId="23" state="hidden" r:id="rId1"/>
@@ -2128,9 +2128,6 @@
     <t>Geen extra regels</t>
   </si>
   <si>
-    <t>doen we hier iets mee?</t>
-  </si>
-  <si>
     <t>Strikte verplichting IMKL. Altijd false?????</t>
   </si>
   <si>
@@ -2244,6 +2241,9 @@
   </si>
   <si>
     <t>Deze info zit al in de UtilityLinkSet. Op niveau van de individuele link is dit niet meer nodig. Wordt bijgevolg genegeerd als toch meegegeven wordt.</t>
+  </si>
+  <si>
+    <t>Wordt niet gebruikt</t>
   </si>
 </sst>
 </file>
@@ -2872,7 +2872,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3072,6 +3072,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="447">
     <cellStyle name="Gevolgde hyperlink" xfId="356" builtinId="9" hidden="1"/>
@@ -5932,7 +5933,7 @@
         <v>260</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>247</v>
@@ -6562,7 +6563,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -6832,7 +6833,7 @@
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1">
       <c r="A15" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>96</v>
@@ -7308,7 +7309,7 @@
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1">
       <c r="A15" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>96</v>
@@ -7797,7 +7798,7 @@
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1">
       <c r="A15" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>96</v>
@@ -8266,7 +8267,7 @@
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1">
       <c r="A14" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>96</v>
@@ -8735,7 +8736,7 @@
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1">
       <c r="A14" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>96</v>
@@ -9287,7 +9288,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="42">
       <c r="A1" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -9437,10 +9438,10 @@
     </row>
     <row r="9" spans="1:6" ht="31.5">
       <c r="A9" s="25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>247</v>
@@ -9457,10 +9458,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>247</v>
@@ -9477,10 +9478,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>247</v>
@@ -9497,10 +9498,10 @@
     </row>
     <row r="12" spans="1:6" ht="31.5">
       <c r="A12" s="25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>247</v>
@@ -9539,7 +9540,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="42">
       <c r="A1" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -9689,10 +9690,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>247</v>
@@ -9709,10 +9710,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>247</v>
@@ -9729,10 +9730,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>247</v>
@@ -9772,7 +9773,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -9902,7 +9903,7 @@
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1">
       <c r="A8" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>194</v>
@@ -9977,7 +9978,7 @@
         <v>131</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="28" customFormat="1">
@@ -10012,7 +10013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
@@ -10028,7 +10029,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -10158,10 +10159,10 @@
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1">
       <c r="A8" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>247</v>
@@ -10181,7 +10182,7 @@
         <v>202</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>247</v>
@@ -10201,7 +10202,7 @@
         <v>203</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>247</v>
@@ -10221,7 +10222,7 @@
         <v>205</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>247</v>
@@ -10241,7 +10242,7 @@
         <v>136</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>247</v>
@@ -10258,7 +10259,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="51" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B13" s="51" t="s">
         <v>194</v>
@@ -10267,7 +10268,7 @@
         <v>247</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E13" s="51" t="s">
         <v>131</v>
@@ -10305,7 +10306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -10322,7 +10323,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -10472,7 +10473,7 @@
     </row>
     <row r="9" spans="1:6" s="25" customFormat="1">
       <c r="A9" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>194</v>
@@ -10507,7 +10508,7 @@
         <v>131</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="25" customFormat="1" ht="14.25" customHeight="1">
@@ -10809,7 +10810,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -10939,7 +10940,7 @@
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>194</v>
@@ -11328,7 +11329,7 @@
         <v>131</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="13" customFormat="1" ht="36" customHeight="1">
@@ -11564,7 +11565,7 @@
         <v>131</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="13" customFormat="1">
@@ -11679,8 +11680,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -11760,7 +11761,7 @@
         <v>137</v>
       </c>
       <c r="F4" s="67" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
@@ -12080,7 +12081,7 @@
         <v>137</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="15" customFormat="1">
@@ -12120,12 +12121,12 @@
         <v>137</v>
       </c>
       <c r="F22" s="67" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="51" customFormat="1">
       <c r="A23" s="51" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B23" s="51" t="s">
         <v>194</v>
@@ -14003,7 +14004,7 @@
         <v>137</v>
       </c>
       <c r="F6" s="72" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="36" customFormat="1" ht="27.75" customHeight="1">
@@ -14043,7 +14044,7 @@
         <v>131</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="25.5" customHeight="1">
@@ -14103,7 +14104,7 @@
         <v>131</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="36" customFormat="1">
@@ -14123,7 +14124,7 @@
         <v>131</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="36" customFormat="1">
@@ -14143,7 +14144,7 @@
         <v>131</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="36" customFormat="1">
@@ -14163,7 +14164,7 @@
         <v>131</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="36" customFormat="1">
@@ -14183,7 +14184,7 @@
         <v>137</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="36" customFormat="1">
@@ -14203,7 +14204,7 @@
         <v>137</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -14232,7 +14233,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -14249,8 +14250,8 @@
       <c r="A1" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>302</v>
+      <c r="B1" s="83" t="s">
+        <v>336</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -14394,7 +14395,7 @@
         <v>131</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1">
@@ -14414,7 +14415,7 @@
         <v>131</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -14434,7 +14435,7 @@
         <v>131</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1">
@@ -14454,7 +14455,7 @@
         <v>131</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -14474,7 +14475,7 @@
         <v>137</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="12" customFormat="1">
@@ -14494,7 +14495,7 @@
         <v>137</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -14550,7 +14551,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -14675,7 +14676,7 @@
         <v>137</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1">
@@ -14775,7 +14776,7 @@
         <v>137</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="12" customFormat="1">
@@ -15079,7 +15080,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -15599,7 +15600,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B1" s="69"/>
       <c r="C1" s="7"/>
@@ -16112,7 +16113,7 @@
         <v>260</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>247</v>
@@ -16371,7 +16372,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="13" customFormat="1" ht="78.75">
+    <row r="11" spans="1:6" s="13" customFormat="1" ht="63">
       <c r="A11" s="13" t="s">
         <v>148</v>
       </c>
@@ -16696,7 +16697,7 @@
         <v>260</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>247</v>
@@ -17285,7 +17286,7 @@
         <v>260</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>247</v>
@@ -17874,7 +17875,7 @@
         <v>260</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>247</v>
